--- a/spreadsheet/macrofree/logic_app_checklist.es.xlsx
+++ b/spreadsheet/macrofree/logic_app_checklist.es.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>

--- a/spreadsheet/macrofree/logic_app_checklist.es.xlsx
+++ b/spreadsheet/macrofree/logic_app_checklist.es.xlsx
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/logic-apps/single-tenant-overview-compare</t>
+          <t>https://learn.microsoft.com/azure/logic-apps/single-tenant-overview-compare</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/logic-apps/set-up-zone-redundancy-availability-zones?tabs=standard#next-steps</t>
+          <t>https://learn.microsoft.com/azure/logic-apps/set-up-zone-redundancy-availability-zones?tabs=standard#next-steps</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/logic-apps/business-continuity-disaster-recovery-guidance?toc=%2Fazure%2Freliability%2Ftoc.json&amp;bc=%2Fazure%2Freliability%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/logic-apps/business-continuity-disaster-recovery-guidance?toc=%2Fazure%2Freliability%2Ftoc.json&amp;bc=%2Fazure%2Freliability%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/environment/intro</t>
+          <t>https://learn.microsoft.com/azure/app-service/environment/intro</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/deploy-azure-functions/</t>
+          <t>https://learn.microsoft.com/training/modules/deploy-azure-functions/</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
